--- a/test_cases_SE.xlsx
+++ b/test_cases_SE.xlsx
@@ -1,17 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADITI\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E01B729-F3A8-4098-94D3-766516FBDC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="111">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -121,18 +141,12 @@
     <t>Inventory Management</t>
   </si>
   <si>
-    <t>Update inventory on shipment arrival</t>
-  </si>
-  <si>
     <t>Shipment data is available.</t>
   </si>
   <si>
     <t>1. Record the arrival of a new shipment. 2. Verify inventory levels are updated.</t>
   </si>
   <si>
-    <t>Shipment details.</t>
-  </si>
-  <si>
     <t>Inventory levels are updated after the shipment arrives.</t>
   </si>
   <si>
@@ -154,15 +168,9 @@
     <t>TC007</t>
   </si>
   <si>
-    <t>Allocate inventory for orders</t>
-  </si>
-  <si>
     <t>Orders and available inventory exist.</t>
   </si>
   <si>
-    <t>1. Allocate inventory to specific orders.</t>
-  </si>
-  <si>
     <t>Order and inventory details.</t>
   </si>
   <si>
@@ -235,45 +243,12 @@
     <t>TC012</t>
   </si>
   <si>
-    <t>Reporting and Analytics</t>
-  </si>
-  <si>
-    <t>Generate order and inventory reports</t>
-  </si>
-  <si>
-    <t>Data for orders and inventory is available.</t>
-  </si>
-  <si>
-    <t>1. Generate reports on order status and inventory levels.</t>
-  </si>
-  <si>
-    <t>Report generation parameters.</t>
-  </si>
-  <si>
-    <t>Reports are generated accurately.</t>
-  </si>
-  <si>
     <t>TC013</t>
   </si>
   <si>
-    <t>Real-time analytics</t>
-  </si>
-  <si>
-    <t>Data is constantly changing.</t>
-  </si>
-  <si>
-    <t>1. Access real-time analytics data.</t>
-  </si>
-  <si>
-    <t>Real-time analytics data is updated and provides valuable insights.</t>
-  </si>
-  <si>
     <t>TC014</t>
   </si>
   <si>
-    <t>Integration with External Systems</t>
-  </si>
-  <si>
     <t>Connect with shipping carriers</t>
   </si>
   <si>
@@ -292,21 +267,6 @@
     <t>TC015</t>
   </si>
   <si>
-    <t>Integrate with financial systems</t>
-  </si>
-  <si>
-    <t>Financial systems are set up for integration.</t>
-  </si>
-  <si>
-    <t>1. Process invoices and payments using financial system integration.</t>
-  </si>
-  <si>
-    <t>Invoice and payment data.</t>
-  </si>
-  <si>
-    <t>Integration with financial systems for invoicing and payment processing works.</t>
-  </si>
-  <si>
     <t>TC016</t>
   </si>
   <si>
@@ -340,9 +300,6 @@
     <t>Unauthorized access is prevented.</t>
   </si>
   <si>
-    <t>TC018</t>
-  </si>
-  <si>
     <t>Test for vulnerabilities</t>
   </si>
   <si>
@@ -353,22 +310,91 @@
   </si>
   <si>
     <t>The system detects and prevents SQL injection and cross-site scripting.</t>
+  </si>
+  <si>
+    <t>User account exists.</t>
+  </si>
+  <si>
+    <t>Verify that a new user can successfully sign up for an account.</t>
+  </si>
+  <si>
+    <t>User does not have an existing account.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valid user information </t>
+  </si>
+  <si>
+    <t>1.Navigate to the sign-up page. 2.Fill in the required user information 3.Click 'Sign Up' button.</t>
+  </si>
+  <si>
+    <t>User account is created successfully, and the system redirects the user to the login page.</t>
+  </si>
+  <si>
+    <t>Update inventory on product arrival</t>
+  </si>
+  <si>
+    <t>Product data is available.</t>
+  </si>
+  <si>
+    <t>Product details.</t>
+  </si>
+  <si>
+    <t>Supplier Management</t>
+  </si>
+  <si>
+    <t>Verify that suppliers can add products to the inventory.</t>
+  </si>
+  <si>
+    <t>Supplier is logged in.</t>
+  </si>
+  <si>
+    <t>1.Navigate to the supplier management interface. 2.Add a new product to the inventory.</t>
+  </si>
+  <si>
+    <t>Valid supplier credentials, product details.</t>
+  </si>
+  <si>
+    <t>Suppliers can successfully add products to the inventory.</t>
+  </si>
+  <si>
+    <t>Transportation Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">View products in inventory </t>
+  </si>
+  <si>
+    <t>1. Click on "View Inventory" button on dashboard</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -377,36 +403,44 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -596,24 +630,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A4:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="20.0"/>
-    <col customWidth="1" min="3" max="3" width="32.0"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4">
+    <row r="4" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -645,60 +685,60 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="H6" s="1" t="s">
         <v>13</v>
       </c>
@@ -709,27 +749,27 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>13</v>
@@ -741,444 +781,444 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>13</v>
+      <c r="C10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="H12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="D14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="H14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="F15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="H15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="D16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="F16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="H16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="H17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="B18" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="H18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="B19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="C20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="B21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="D21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="H21" s="1" t="s">
         <v>13</v>
       </c>
@@ -1189,39 +1229,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>